--- a/Codes/data/solidworksMaterialDatabase.xlsx
+++ b/Codes/data/solidworksMaterialDatabase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisy\Desktop\SM311\MATRUSS_LIMPIO\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisy\Desktop\CO2-Topology-Optimization-main2\Codes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A52F2-F76D-4AAD-9BCD-25B26371F144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9FB06F-7E0C-4B83-8DA7-50558F630A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,9 @@
     <t>class_id</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>massDensity</t>
   </si>
   <si>
-    <t>tensileStrength</t>
-  </si>
-  <si>
     <t>A286 Iron</t>
   </si>
   <si>
@@ -310,6 +301,15 @@
   </si>
   <si>
     <t>P bronze</t>
+  </si>
+  <si>
+    <t>youngsModulus</t>
+  </si>
+  <si>
+    <t>costPerKg</t>
+  </si>
+  <si>
+    <t>yieldStrength</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,24 +712,24 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>1060</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -910,10 +910,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1002,10 +1002,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1117,10 +1117,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1163,10 +1163,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1209,10 +1209,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>1345</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>1350</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>2024</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1554,10 +1554,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1623,10 +1623,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>3003</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1784,10 +1784,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1853,10 +1853,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1899,10 +1899,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>6061</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -2129,10 +2129,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2152,10 +2152,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2175,10 +2175,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -2221,10 +2221,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2244,10 +2244,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2290,10 +2290,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -2359,10 +2359,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -2474,10 +2474,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -2497,10 +2497,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -2520,10 +2520,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -2543,10 +2543,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>3</v>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -2681,10 +2681,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -2704,10 +2704,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -2727,10 +2727,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C89">
         <v>4</v>
@@ -2750,10 +2750,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -2796,10 +2796,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -2819,10 +2819,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -2841,6 +2841,54 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
